--- a/biology/Médecine/Charles-Paul_Diday/Charles-Paul_Diday.xlsx
+++ b/biology/Médecine/Charles-Paul_Diday/Charles-Paul_Diday.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles-Paul Diday, né le 2 janvier 1813 à Bourg-en-Bresse et mort le 8 janvier 1894 à Lyon, est un médecin, chirurgien et dermatologue français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles-Paul Diday fit des études de médecine et fut nommé interne des Hôpitaux de Paris en 1832, il fut l'élève de Philippe Ricord à l'Hôpital du Midi-Ricord annexé à l'hôpital Cochin, puis devint chirurgien-major à l'hôpital de l'Antiquaille à Lyon en 1838.
 Charles-Paul Diday se spécialisa dans la recherche sur l'infection sexuellement transmissible, les maladies vénériennes, la blennorragie et la syphilis. Il étudia notamment la transmission de la syphilis de la mère à l'enfant. Il est l’auteur entre autres d’un "Traité de la syphilis et des nouveau-nés et des enfants à la mamelle" qui sera traduit en plusieurs langues. Il y créa une école de vénéréologie calquée sur celle de Philippe Ricord. Il fut un partisan de la distribution de préservatifs aux prostituées.
@@ -545,7 +559,9 @@
           <t>Travaux publiés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traité de la syphilis des nouveau-nés et des enfants à la mamelle, Paris 1854
 Exposition critique et pratique des nouvelles doctrines sur la syphilis, suivie d'une étude sur de nouveaux moyens préservatifs des maladies vénériennes, Paris, Londres et New York 1858)
